--- a/Assets/Designs/General/Day.xlsx
+++ b/Assets/Designs/General/Day.xlsx
@@ -979,7 +979,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/Assets/Designs/General/Day.xlsx
+++ b/Assets/Designs/General/Day.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="30060" windowHeight="13955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -33,13 +46,16 @@
     <t>DefaultLevel</t>
   </si>
   <si>
+    <t>RoomALevel</t>
+  </si>
+  <si>
     <t>AudienceLevel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -655,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,6 +679,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,7 +998,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1016,7 +1035,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1025,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1033,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1041,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1049,7 +1068,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1057,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1065,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Day.xlsx
+++ b/Assets/Designs/General/Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30060" windowHeight="13955"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>StartedScene</t>
+  </si>
+  <si>
+    <t>RealDay</t>
+  </si>
+  <si>
+    <t>PrevDayID</t>
+  </si>
+  <si>
+    <t>NextDayID</t>
+  </si>
+  <si>
+    <t>RemainTeam</t>
+  </si>
+  <si>
+    <t>GameEnd</t>
   </si>
   <si>
     <t>int</t>
@@ -62,10 +77,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -541,141 +562,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -995,96 +1019,251 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="39.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="40.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="20.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>6</v>
       </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
         <v>6</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Day.xlsx
+++ b/Assets/Designs/General/Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1034,6 +1034,7 @@
     <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="19.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="20.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/Assets/Designs/General/Day.xlsx
+++ b/Assets/Designs/General/Day.xlsx
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1117,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1133,8 +1133,8 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1156,8 +1156,8 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
         <v>3</v>

--- a/Assets/Designs/General/Day.xlsx
+++ b/Assets/Designs/General/Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>RoomALevel</t>
+  </si>
+  <si>
+    <t>AudienceLowLevel</t>
   </si>
   <si>
     <t>AudienceLevel</t>
@@ -1022,18 +1025,18 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="40.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="23.2212389380531" customWidth="1"/>
+    <col min="2" max="2" width="40.2212389380531" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="19.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="20.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="23.1150442477876" customWidth="1"/>
+    <col min="5" max="5" width="22.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="19.1150442477876" customWidth="1"/>
+    <col min="7" max="7" width="20.1150442477876" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1157,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1180,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1203,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1226,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1249,7 +1252,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -1283,7 +1286,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1300,7 +1303,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
